--- a/Product-backlog karam FOP.xlsx
+++ b/Product-backlog karam FOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD0DCB6-1103-4C01-82C4-17F82AE9C98D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E764BA7-AC52-46BA-83CB-4A10D06A7A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="3168" windowWidth="13680" windowHeight="8964" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Week 9</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>3.2.9</t>
+  </si>
+  <si>
+    <t>GUI for buttons</t>
+  </si>
+  <si>
+    <t>GUI for panels</t>
   </si>
 </sst>
 </file>
@@ -869,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,12 +1095,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="D14" s="2"/>
-      <c r="F14" s="8">
-        <f>+C2</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1103,8 +1110,13 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>

--- a/Product-backlog karam FOP.xlsx
+++ b/Product-backlog karam FOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E764BA7-AC52-46BA-83CB-4A10D06A7A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8BE05-DB5D-44D7-A6E1-F3B7813DEF61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,6 +384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1267,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>5</v>
       </c>
@@ -1286,6 +1287,9 @@
       </c>
       <c r="F34" s="34">
         <v>0</v>
+      </c>
+      <c r="I34" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
